--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/B/15/seed1/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/B/15/seed1/result_data_RandomForest.xlsx
@@ -488,7 +488,7 @@
         <v>-19.84</v>
       </c>
       <c r="B4" t="n">
-        <v>8.741899999999998</v>
+        <v>8.838199999999995</v>
       </c>
       <c r="C4" t="n">
         <v>-13.95</v>
@@ -516,7 +516,7 @@
         <v>-21.08</v>
       </c>
       <c r="B6" t="n">
-        <v>5.048700000000006</v>
+        <v>5.047000000000006</v>
       </c>
       <c r="C6" t="n">
         <v>-15.25</v>
@@ -530,7 +530,7 @@
         <v>-22.82</v>
       </c>
       <c r="B7" t="n">
-        <v>5.560500000000002</v>
+        <v>5.643000000000004</v>
       </c>
       <c r="C7" t="n">
         <v>-11.52</v>
@@ -656,7 +656,7 @@
         <v>-22.39</v>
       </c>
       <c r="B16" t="n">
-        <v>5.051599999999998</v>
+        <v>4.935799999999999</v>
       </c>
       <c r="C16" t="n">
         <v>-13.59</v>
@@ -712,7 +712,7 @@
         <v>-19.14</v>
       </c>
       <c r="B20" t="n">
-        <v>9.535499999999985</v>
+        <v>9.515299999999986</v>
       </c>
       <c r="C20" t="n">
         <v>-14.88</v>
@@ -824,7 +824,7 @@
         <v>-21.74</v>
       </c>
       <c r="B28" t="n">
-        <v>5.717199999999997</v>
+        <v>6.035900000000002</v>
       </c>
       <c r="C28" t="n">
         <v>-11.8</v>
@@ -838,7 +838,7 @@
         <v>-21.48</v>
       </c>
       <c r="B29" t="n">
-        <v>5.155000000000006</v>
+        <v>5.125200000000004</v>
       </c>
       <c r="C29" t="n">
         <v>-11.02</v>
@@ -880,7 +880,7 @@
         <v>-20.86</v>
       </c>
       <c r="B32" t="n">
-        <v>6.788499999999996</v>
+        <v>6.614799999999999</v>
       </c>
       <c r="C32" t="n">
         <v>-10.55</v>
@@ -992,7 +992,7 @@
         <v>-19.21</v>
       </c>
       <c r="B40" t="n">
-        <v>9.140399999999989</v>
+        <v>9.146699999999992</v>
       </c>
       <c r="C40" t="n">
         <v>-12.94</v>
@@ -1076,7 +1076,7 @@
         <v>-22.54</v>
       </c>
       <c r="B46" t="n">
-        <v>5.908300000000001</v>
+        <v>5.646600000000006</v>
       </c>
       <c r="C46" t="n">
         <v>-11.47</v>
@@ -1146,7 +1146,7 @@
         <v>-22</v>
       </c>
       <c r="B51" t="n">
-        <v>5.7515</v>
+        <v>5.532499999999998</v>
       </c>
       <c r="C51" t="n">
         <v>-13.17</v>
@@ -1160,7 +1160,7 @@
         <v>-21.69</v>
       </c>
       <c r="B52" t="n">
-        <v>5.428899999999996</v>
+        <v>5.377099999999997</v>
       </c>
       <c r="C52" t="n">
         <v>-14.35</v>
@@ -1230,7 +1230,7 @@
         <v>-22.67</v>
       </c>
       <c r="B57" t="n">
-        <v>5.095999999999997</v>
+        <v>5.030399999999995</v>
       </c>
       <c r="C57" t="n">
         <v>-15.01</v>
@@ -1258,7 +1258,7 @@
         <v>-21.94</v>
       </c>
       <c r="B59" t="n">
-        <v>4.7672</v>
+        <v>4.749199999999999</v>
       </c>
       <c r="C59" t="n">
         <v>-14.55</v>
@@ -1300,7 +1300,7 @@
         <v>-22.78</v>
       </c>
       <c r="B62" t="n">
-        <v>5.509199999999998</v>
+        <v>5.503999999999999</v>
       </c>
       <c r="C62" t="n">
         <v>-14.53</v>
@@ -1356,7 +1356,7 @@
         <v>-21.61</v>
       </c>
       <c r="B66" t="n">
-        <v>5.728299999999997</v>
+        <v>5.847899999999995</v>
       </c>
       <c r="C66" t="n">
         <v>-10.51</v>
@@ -1454,7 +1454,7 @@
         <v>-20.59</v>
       </c>
       <c r="B73" t="n">
-        <v>8.792299999999999</v>
+        <v>8.9176</v>
       </c>
       <c r="C73" t="n">
         <v>-15.02</v>
@@ -1468,7 +1468,7 @@
         <v>-19.27</v>
       </c>
       <c r="B74" t="n">
-        <v>8.974899999999996</v>
+        <v>9.054699999999995</v>
       </c>
       <c r="C74" t="n">
         <v>-12.97</v>
@@ -1720,7 +1720,7 @@
         <v>-21.3</v>
       </c>
       <c r="B92" t="n">
-        <v>4.839399999999998</v>
+        <v>4.768299999999998</v>
       </c>
       <c r="C92" t="n">
         <v>-9.789999999999999</v>
@@ -1832,7 +1832,7 @@
         <v>-21.08</v>
       </c>
       <c r="B100" t="n">
-        <v>5.157800000000003</v>
+        <v>4.957600000000005</v>
       </c>
       <c r="C100" t="n">
         <v>-13.95</v>
